--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2372430.685875887</v>
+        <v>2476610.320326959</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>168.1161921880586</v>
+        <v>17.35112070699398</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>144.0976002610719</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>289.1825630108439</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>355.4436597011315</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>96.47271252687837</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>257.6276659754728</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>52.90622424463543</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>49.15618592398837</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>142.740440620318</v>
       </c>
       <c r="U13" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>106.9094576655913</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>106.3652565620424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.14989839348875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13.79222725775265</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>218.0379183711101</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2792,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>87.2147151485303</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856552</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179874</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>139.3687739767485</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>54.63637568893614</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0.012762354735504</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4138,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W2" t="n">
-        <v>2839.523069976995</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X2" t="n">
-        <v>2466.057311715915</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686082</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>1924.969305652892</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>1924.969305652892</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>1924.969305652892</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1779.416174076052</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1632.526226578141</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435996</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>2844.817070561639</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>2555.399900524679</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>2327.410349626662</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>2106.617770483132</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1561.900772669912</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="C5" t="n">
-        <v>1561.900772669912</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1561.900772669912</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.112520071668</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>765.1266152820601</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4583,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645724</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1561.900772669912</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4649,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.9252167254034</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>461.9890337974965</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>311.8723943851608</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.9593008027676</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>812.5736815556431</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.5736815556431</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.169188758593</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C8" t="n">
-        <v>1878.169188758593</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>481.6572696514548</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>481.6572696514548</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="G10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1877.641835033959</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1655.875219603485</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1366.772352729129</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1112.087864523242</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1112.087864523242</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>884.0983136252247</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3057344816946</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5069,19 +5071,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5120,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969303</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5267,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5461,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111716</v>
@@ -5525,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1937.067131165134</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1682.382642959247</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1392.965472922287</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1164.975922024269</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>944.1833428807391</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,19 +5773,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5844,13 +5846,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5932,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951537</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6221,25 +6223,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6251,13 +6253,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>3194.624135499466</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>3025.687952571559</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>4334.712221995194</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>4114.471900408214</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>3825.054730371254</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>3597.065179473236</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>3376.272600329706</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6458,13 +6460,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6479,10 +6481,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2985.713220456423</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C31" t="n">
-        <v>2816.777037528516</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>2816.777037528516</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>2816.777037528516</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3388.154264430193</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3167.361685286663</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746423</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168404</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
@@ -6947,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>984.9192356072721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7132,13 +7134,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7187,34 +7189,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7311,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,52 +7399,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7594,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>4681.594624329724</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>4498.739789984628</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-5.545544354169033e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>74.66500970697024</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>60.33736343303656</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>179.8192178272018</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.6820817884485</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>166.0397529241847</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>34.09972495271791</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>40.2540775479641</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>58.20633287440094</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>146.8157004124956</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>112.6104454096917</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2340587438923</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194083</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448194</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.37164482</v>
-      </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="J2" t="n">
-        <v>625538.6147597551</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>625538.6147597545</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597546</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818179</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92183.89891818176</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.89891818169</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92183.89891818169</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818176</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,7 +26432,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683039</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
@@ -26439,10 +26441,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="K4" t="n">
         <v>12996.8641468304</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.2135623484</v>
+        <v>-892555.2135623476</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652445</v>
+        <v>436189.5321652446</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.5321652449</v>
+        <v>436189.5321652442</v>
       </c>
       <c r="E6" t="n">
-        <v>186006.7589816618</v>
+        <v>186006.758981662</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890176</v>
+        <v>511419.2207890174</v>
       </c>
       <c r="G6" t="n">
         <v>511419.2207890173</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890174</v>
+        <v>511419.2207890172</v>
       </c>
       <c r="I6" t="n">
+        <v>511419.2207890172</v>
+      </c>
+      <c r="J6" t="n">
+        <v>293888.0183917399</v>
+      </c>
+      <c r="K6" t="n">
         <v>511419.2207890173</v>
       </c>
-      <c r="J6" t="n">
-        <v>293888.01839174</v>
-      </c>
-      <c r="K6" t="n">
-        <v>511419.2207890174</v>
-      </c>
       <c r="L6" t="n">
+        <v>511419.2207890171</v>
+      </c>
+      <c r="M6" t="n">
+        <v>426364.1928535057</v>
+      </c>
+      <c r="N6" t="n">
+        <v>511419.220789017</v>
+      </c>
+      <c r="O6" t="n">
         <v>511419.2207890172</v>
       </c>
-      <c r="M6" t="n">
-        <v>426364.1928535052</v>
-      </c>
-      <c r="N6" t="n">
-        <v>511419.2207890173</v>
-      </c>
-      <c r="O6" t="n">
-        <v>511419.2207890171</v>
-      </c>
       <c r="P6" t="n">
-        <v>511419.2207890174</v>
+        <v>511419.2207890172</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -27439,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>181.1247765293544</v>
+        <v>331.889848010419</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.336362385497267</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>76.09032876016363</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>55.47806595232191</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>48.94833549605288</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.05537564521018</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>329.0241458276263</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>88.71226382522364</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>140.6128394074535</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29515,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31838,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,10 +32080,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>543.0832917018706</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32257,7 +32259,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32318,25 +32320,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32491,7 +32493,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043726</v>
@@ -32564,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32792,13 +32794,13 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M24" t="n">
-        <v>567.5882829286707</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32810,7 +32812,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33020,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33433,7 +33435,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236508</v>
@@ -33494,34 +33496,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>232.153703594058</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33734,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,16 +33748,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33974,28 +33976,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262132</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34217,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N42" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,13 +34365,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34448,7 +34450,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34460,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748315</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>409.1088842875403</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36212,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M24" t="n">
-        <v>425.4542490066523</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36458,7 +36460,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>90.01966967203964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N42" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38108,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2476610.320326959</v>
+        <v>2472597.710312966</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -712,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>315.8867849462304</v>
       </c>
       <c r="W2" t="n">
-        <v>17.35112070699398</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>144.0976002610719</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>202.2334741230745</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>289.1825630108439</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,22 +1056,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>173.6268892744755</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>273.1222025221964</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>52.90622424463543</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>26.3653517777011</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>77.31354443380458</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>38.61213096654769</v>
       </c>
       <c r="T13" t="n">
-        <v>142.740440620318</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>106.9094576655913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>106.3652565620424</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2371,7 +2371,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>218.0379183711101</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>126.9927435506637</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>139.3687739767485</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0.012762354735504</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1924.969305652892</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1924.969305652892</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1924.969305652892</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1779.416174076052</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1632.526226578141</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.82338995286</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.82338995286</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435996</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>3133.919937435996</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>2844.817070561639</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V4" t="n">
-        <v>2844.817070561639</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="W4" t="n">
-        <v>2555.399900524679</v>
+        <v>1501.251696170064</v>
       </c>
       <c r="X4" t="n">
-        <v>2327.410349626662</v>
+        <v>1273.262145272047</v>
       </c>
       <c r="Y4" t="n">
-        <v>2106.617770483132</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2268.308520734406</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734406</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4725,16 +4725,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1241.044369546818</v>
+        <v>1651.413535439809</v>
       </c>
       <c r="V7" t="n">
-        <v>986.3598813409312</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="W7" t="n">
-        <v>696.9427113039706</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="X7" t="n">
-        <v>468.9531604059532</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591601078695</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.591601078695</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.591601078695</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3298.974153146847</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3045.443676420683</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2714.380789077113</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2361.612133806998</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118629</v>
+        <v>1988.146375545919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142817</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>144.6066057592588</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>144.6066057592588</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>724.7519863413022</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2407.960931088798</v>
       </c>
       <c r="T13" t="n">
-        <v>2052.880282234721</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U13" t="n">
-        <v>1763.805055578919</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.120567373032</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W13" t="n">
-        <v>1219.703397336071</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>991.7138464380538</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>906.4004511715419</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5764,40 +5764,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,43 +5980,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6205,31 +6205,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3194.624135499466</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3025.687952571559</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650996</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995194</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>4114.471900408214</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3825.054730371254</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.065179473236</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.272600329706</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.2946447138415</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6940,22 +6940,22 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7089,7 +7089,7 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075794</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7420,19 +7420,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.547769317909</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7596,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7651,25 +7651,25 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-5.545544354169033e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.785683111366094e-12</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.4141550350969</v>
       </c>
       <c r="T13" t="n">
-        <v>74.66500970697024</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>60.33736343303656</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>179.8192178272018</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>145.6085800303778</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>34.09972495271791</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>40.2540775479641</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.73700564187202</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>146.8157004124956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2340587438923</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194083</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597546</v>
-      </c>
       <c r="M2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597547</v>
@@ -26368,25 +26368,25 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>92183.89891818179</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818169</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26432,19 +26432,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683039</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.2135623476</v>
+        <v>-892555.2135623478</v>
       </c>
       <c r="C6" t="n">
+        <v>436189.5321652441</v>
+      </c>
+      <c r="D6" t="n">
         <v>436189.5321652446</v>
       </c>
-      <c r="D6" t="n">
-        <v>436189.5321652442</v>
-      </c>
       <c r="E6" t="n">
-        <v>186006.758981662</v>
+        <v>185659.3797273056</v>
       </c>
       <c r="F6" t="n">
-        <v>511419.2207890174</v>
+        <v>511071.8415346603</v>
       </c>
       <c r="G6" t="n">
-        <v>511419.2207890173</v>
+        <v>511071.84153466</v>
       </c>
       <c r="H6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346607</v>
       </c>
       <c r="I6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346601</v>
       </c>
       <c r="J6" t="n">
-        <v>293888.0183917399</v>
+        <v>293540.6391373829</v>
       </c>
       <c r="K6" t="n">
-        <v>511419.2207890173</v>
+        <v>511071.8415346603</v>
       </c>
       <c r="L6" t="n">
-        <v>511419.2207890171</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="M6" t="n">
-        <v>426364.1928535057</v>
+        <v>426016.8135991487</v>
       </c>
       <c r="N6" t="n">
-        <v>511419.220789017</v>
+        <v>511071.8415346603</v>
       </c>
       <c r="O6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346604</v>
       </c>
       <c r="P6" t="n">
-        <v>511419.2207890172</v>
+        <v>511071.8415346603</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,16 +26810,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>11.86547352390454</v>
       </c>
       <c r="W2" t="n">
-        <v>331.889848010419</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.336362385497267</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>84.2895242135165</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>76.09032876016363</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>16.14213605696639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.08963568341647</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>329.0241458276263</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>177.552618361919</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>88.71226382522364</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32493,7 +32493,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043726</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,34 +32785,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>393.3904345522222</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,13 +33259,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33277,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33435,7 +33435,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236508</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
         <v>867.8464071162563</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043726</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,13 +33891,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
         <v>867.8464071162563</v>
@@ -33970,10 +33970,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>454.1257695262132</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34371,7 +34371,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
         <v>867.8464071162563</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35895,7 +35895,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969394</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>254.8360547723481</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36925,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
         <v>632.079992146269</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,22 +37630,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>311.9917356041949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37867,13 +37867,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2472597.710312966</v>
+        <v>2474358.240615751</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283175</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>315.8867849462304</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>374.3724651321482</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>202.2334741230745</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>171.764733482686</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>279.3751023006562</v>
       </c>
       <c r="E5" t="n">
-        <v>75.45713216103701</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>131.6653792309043</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>273.1222025221964</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>26.3653517777011</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271565</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>70.70607604584283</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>88.86833396296896</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>38.61213096654769</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>94.56071137692132</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>180.10034713217</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>111.3213230702139</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124426</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>141.2342243404154</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.63824106824964</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>113.707646477138</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053468</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
@@ -4336,13 +4336,13 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,28 +4351,28 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2436.729368242576</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2083.960712972462</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1710.494954711382</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
         <v>1320.35562273557</v>
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="W4" t="n">
-        <v>1501.251696170064</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.262145272047</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943747</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4670,16 +4670,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199866</v>
@@ -4691,7 +4691,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>981.0661490344795</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>812.1299661065726</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>662.0133266942369</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>514.1002331118437</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>367.2102856139334</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>199.5074489886523</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
         <v>315.6219318279954</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1651.413535439809</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1162.714613864719</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363905</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678289</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3298.974153146847</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3045.443676420683</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2714.380789077113</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2361.612133806998</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>1988.146375545919</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>751.7882586869142</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>582.8520757590073</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>432.7354363466716</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>284.8223427642785</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>137.9323952663681</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>933.436723517154</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413022</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133953</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.741944003838</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797782</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S13" t="n">
-        <v>2407.960931088798</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="T13" t="n">
-        <v>2188.359466111739</v>
+        <v>2160.315914855609</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455937</v>
+        <v>1871.240688199807</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.59975125005</v>
+        <v>1616.55619999392</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1327.139029956959</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1327.139029956959</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.4004511715419</v>
+        <v>1106.346450813429</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2284.401509754965</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2064.800044777906</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1775.724818122104</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1521.040329916217</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1231.623159879256</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1003.633608981239</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="17">
@@ -5503,31 +5503,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855605</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="M21" t="n">
         <v>1176.533952578166</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6156,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6208,34 +6208,34 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6244,16 +6244,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6390,46 +6390,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797788</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910814</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853366</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138461</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703159</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.0424953278208</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6630,7 +6630,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570818</v>
@@ -6639,34 +6639,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2425.106274420413</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.251440075317</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.649975098258</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U31" t="n">
-        <v>1733.574748442456</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1478.890260236569</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.473090199608</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>961.4835393015907</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.6909601580605</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,7 +6773,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
         <v>95.58405025273906</v>
@@ -6782,7 +6782,7 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6867,7 +6867,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6876,34 +6876,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="35">
@@ -6925,25 +6925,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7104,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7113,13 +7113,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487568</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7162,37 +7162,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7341,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7350,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,31 +7408,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="44">
@@ -7636,28 +7636,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
@@ -7666,10 +7666,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7815,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7824,13 +7824,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487568</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-2.216893335571513e-12</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-1.785683111366094e-12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>90.96364621896834</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.4141550350969</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>86.46557462472325</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>106.0841272570741</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>69.7049629314307</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>147.359901516044</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>38.59775584152186</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.73700564187202</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4.845153664064298</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>104.8770068749568</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194146</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>121.5862749664503</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799166.8139980023</v>
+        <v>799166.8139980024</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799166.8139980024</v>
+        <v>799166.8139980023</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>625538.6147597553</v>
+      </c>
+      <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="F2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="G2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="I2" t="n">
         <v>625538.6147597551</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="J2" t="n">
+        <v>625538.6147597552</v>
+      </c>
+      <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="K2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92183.89891818183</v>
+      </c>
+      <c r="C4" t="n">
         <v>92183.89891818179</v>
       </c>
-      <c r="C4" t="n">
-        <v>92183.89891818173</v>
-      </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.8641468304</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683038</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26490,10 +26490,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-892555.2135623478</v>
+        <v>-892555.2135623477</v>
       </c>
       <c r="C6" t="n">
-        <v>436189.5321652441</v>
+        <v>436189.5321652439</v>
       </c>
       <c r="D6" t="n">
-        <v>436189.5321652446</v>
+        <v>436189.5321652443</v>
       </c>
       <c r="E6" t="n">
-        <v>185659.3797273056</v>
+        <v>185972.0210562263</v>
       </c>
       <c r="F6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="G6" t="n">
-        <v>511071.84153466</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="H6" t="n">
-        <v>511071.8415346607</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="I6" t="n">
-        <v>511071.8415346601</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="J6" t="n">
-        <v>293540.6391373829</v>
+        <v>293853.2804663045</v>
       </c>
       <c r="K6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="L6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="M6" t="n">
-        <v>426016.8135991487</v>
+        <v>426329.4549280697</v>
       </c>
       <c r="N6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635816</v>
       </c>
       <c r="O6" t="n">
-        <v>511071.8415346604</v>
+        <v>511384.4828635817</v>
       </c>
       <c r="P6" t="n">
-        <v>511071.8415346603</v>
+        <v>511384.4828635819</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>11.86547352390454</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>11.86547352390534</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>84.2895242135165</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.94492190635117</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>75.30793932002678</v>
       </c>
       <c r="E5" t="n">
-        <v>306.4732379112248</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.08963568341653</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>13.08963568341647</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>177.552618361919</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174543</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>95.31973221318539</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,22 +28064,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.260329494105887e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943058</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>332.9841464938405</v>
+        <v>332.9841464938401</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,7 +32578,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32742,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,7 +32815,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32882,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32979,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,7 +33052,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33119,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159405</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33216,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,7 +33289,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33356,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33453,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,7 +33526,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33593,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33690,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,7 +33763,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33830,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669205</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33927,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,7 +34000,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34067,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34401,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,7 +34474,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34541,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113578</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096386</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036775</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>199.0097390795103</v>
+        <v>199.0097390795098</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36527,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191357</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193496</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -37001,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37238,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37475,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492471</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37712,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38186,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>
